--- a/demo/环保计算表格.xlsx
+++ b/demo/环保计算表格.xlsx
@@ -893,7 +893,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1020,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1123,7 +1129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1194,6 +1200,9 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,21 +1221,87 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1253,7 +1328,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1693,7 +1767,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2703,25 +2776,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" s="9"/>
@@ -2753,28 +2826,28 @@
       <c r="G3" s="34"/>
       <c r="H3" s="34"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
     </row>
     <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="9"/>
       <c r="J4" s="1" t="s">
         <v>13</v>
@@ -2805,15 +2878,15 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="9"/>
       <c r="J5" s="4">
         <f>360*K5/365</f>
@@ -2848,15 +2921,15 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9"/>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J18" si="0">360*K6/365</f>
@@ -2891,15 +2964,15 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="9"/>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
@@ -2926,7 +2999,7 @@
         <v>-1.9815443281838709</v>
       </c>
       <c r="Q7" s="5">
-        <f t="shared" ref="Q6:Q18" si="2">R7/TAN(P7*PI()/180)</f>
+        <f t="shared" ref="Q7:Q18" si="2">R7/TAN(P7*PI()/180)</f>
         <v>-4624.5089405422223</v>
       </c>
       <c r="R7" s="8">
@@ -2934,15 +3007,15 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9"/>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
@@ -2977,15 +3050,15 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="9"/>
       <c r="J9" s="4">
         <f t="shared" si="0"/>
@@ -3020,15 +3093,15 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="9"/>
       <c r="J10" s="4">
         <f t="shared" si="0"/>
@@ -3106,15 +3179,15 @@
       </c>
     </row>
     <row r="12" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="9"/>
       <c r="J12" s="4">
         <f t="shared" si="0"/>
@@ -3149,15 +3222,15 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="9"/>
       <c r="J13" s="4">
         <f t="shared" si="0"/>
@@ -3235,15 +3308,15 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="24" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
       <c r="I15" s="9"/>
       <c r="J15" s="4">
         <f t="shared" si="0"/>
@@ -3281,16 +3354,16 @@
       <c r="B16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="27" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="9"/>
       <c r="J16" s="4">
         <f t="shared" si="0"/>
@@ -3326,16 +3399,16 @@
     </row>
     <row r="17" spans="2:18" ht="24" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="27" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="9"/>
       <c r="J17" s="4">
         <f t="shared" si="0"/>
@@ -3373,16 +3446,16 @@
       <c r="B18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="27" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="9"/>
       <c r="J18" s="4">
         <f t="shared" si="0"/>
@@ -3910,17 +3983,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="J3:R3"/>
     <mergeCell ref="B9:H9"/>
@@ -3930,6 +3992,17 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3963,25 +4036,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -4013,28 +4086,28 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
     </row>
     <row r="4" spans="1:17" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="9"/>
       <c r="I4" s="1" t="s">
         <v>13</v>
@@ -4065,15 +4138,15 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="9"/>
       <c r="I5" s="4">
         <f>360*J5/365</f>
@@ -4108,15 +4181,15 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="9"/>
       <c r="I6" s="4">
         <f t="shared" ref="I6:I69" si="0">360*J6/365</f>
@@ -4151,15 +4224,15 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="9"/>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
@@ -4194,15 +4267,15 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="9"/>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
@@ -4237,15 +4310,15 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="9"/>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
@@ -4280,15 +4353,15 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="24" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="9"/>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
@@ -4368,15 +4441,15 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="9"/>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
@@ -4412,15 +4485,15 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="9"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
@@ -4500,15 +4573,15 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="9"/>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
@@ -4547,16 +4620,16 @@
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="29"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="9"/>
       <c r="I16" s="4">
         <f t="shared" si="0"/>
@@ -4593,16 +4666,16 @@
     </row>
     <row r="17" spans="1:17" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="27" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="9"/>
       <c r="I17" s="4">
         <f t="shared" si="0"/>
@@ -4641,16 +4714,16 @@
       <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="27" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="9"/>
       <c r="I18" s="4">
         <f t="shared" si="0"/>
@@ -25381,15 +25454,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:G3"/>
@@ -25401,6 +25465,15 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25410,10 +25483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25461,23 +25534,32 @@
     </row>
     <row r="20" spans="2:6" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="24">
-        <v>12062.24</v>
+        <v>23064.84</v>
       </c>
       <c r="C20" s="25">
         <f>C19*$B20/$B19</f>
-        <v>3.8623779274549097</v>
+        <v>7.3854548505318327</v>
       </c>
       <c r="D20" s="25">
         <f>D19*$B20/$B19</f>
-        <v>2894.9450211628305</v>
+        <v>5535.5757903936001</v>
       </c>
       <c r="E20" s="25">
         <f>E19*$B20/$B19</f>
-        <v>1447.4640774418356</v>
+        <v>2767.7717697495282</v>
       </c>
       <c r="F20" s="25">
         <f>F19*$B20/$B19</f>
-        <v>9.6306453998984871</v>
+        <v>18.415260784513869</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="35">
+        <v>230648.4</v>
+      </c>
+      <c r="D24" s="21">
+        <f>C24/10</f>
+        <v>23064.84</v>
       </c>
     </row>
   </sheetData>
